--- a/deepgenesis/data/red_flag_symptoms.xlsx
+++ b/deepgenesis/data/red_flag_symptoms.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Symptoms</t>
   </si>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>periorbital ecchymoses</t>
-  </si>
-  <si>
-    <t>personality changes</t>
   </si>
   <si>
     <t>petechiae</t>
@@ -633,15 +630,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CJ2"/>
+  <dimension ref="A1:CI2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:CJ2"/>
+      <selection activeCell="CI2" sqref="B2:CI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="52" max="52" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +661,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -694,7 +694,7 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S1" t="s">
         <v>17</v>
@@ -709,7 +709,7 @@
         <v>20</v>
       </c>
       <c r="W1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X1" t="s">
         <v>21</v>
@@ -754,7 +754,7 @@
         <v>34</v>
       </c>
       <c r="AL1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AM1" t="s">
         <v>35</v>
@@ -769,7 +769,7 @@
         <v>38</v>
       </c>
       <c r="AQ1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AR1" t="s">
         <v>39</v>
@@ -778,16 +778,16 @@
         <v>40</v>
       </c>
       <c r="AT1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU1" t="s">
         <v>82</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>83</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>84</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>85</v>
       </c>
       <c r="AX1" t="s">
         <v>41</v>
@@ -832,7 +832,7 @@
         <v>54</v>
       </c>
       <c r="BL1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BM1" t="s">
         <v>55</v>
@@ -853,10 +853,10 @@
         <v>60</v>
       </c>
       <c r="BS1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT1" t="s">
         <v>61</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>86</v>
       </c>
       <c r="BU1" t="s">
         <v>62</v>
@@ -868,10 +868,10 @@
         <v>64</v>
       </c>
       <c r="BX1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY1" t="s">
         <v>65</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>87</v>
       </c>
       <c r="BZ1" t="s">
         <v>66</v>
@@ -903,11 +903,8 @@
       <c r="CI1" t="s">
         <v>75</v>
       </c>
-      <c r="CJ1" t="s">
-        <v>76</v>
-      </c>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1101,28 +1098,28 @@
         <v>1</v>
       </c>
       <c r="BM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO2">
         <v>0</v>
       </c>
       <c r="BP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR2">
         <v>0</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU2">
         <v>0</v>
@@ -1134,10 +1131,10 @@
         <v>0</v>
       </c>
       <c r="BX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
         <v>0</v>
@@ -1146,10 +1143,10 @@
         <v>0</v>
       </c>
       <c r="CB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD2">
         <v>0</v>
@@ -1164,12 +1161,9 @@
         <v>0</v>
       </c>
       <c r="CH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI2">
-        <v>1</v>
-      </c>
-      <c r="CJ2">
         <v>1</v>
       </c>
     </row>
